--- a/data/Patents_Piedmont_1856_1862.xlsx
+++ b/data/Patents_Piedmont_1856_1862.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miro8\OneDrive - Universiteit Utrecht\Documents\Github\layout_parse\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/g_domini_uu_nl/Documents/Documents/Github/layout_parse/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="80" documentId="11_205614A35F72FF7D5E9A7B571F531A1A6B98AB18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA197DE-16CE-4737-9D2C-8A53ABC2665C}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Giacomo Domini</author>
     <author>Domini, G. (Giacomo)</author>
@@ -49,7 +50,7 @@
     <author>tc={08EA94E5-4B47-4708-A547-BE87E139B276}</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B111" authorId="1" shapeId="0">
+    <comment ref="B111" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B113" authorId="0" shapeId="0">
+    <comment ref="B113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B114" authorId="0" shapeId="0">
+    <comment ref="B114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -169,24 +170,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B116" authorId="2" shapeId="0">
+    <comment ref="B116" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Lyon</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B117" authorId="0" shapeId="0">
+    <comment ref="B117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B122" authorId="0" shapeId="0">
+    <comment ref="B122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B124" authorId="0" shapeId="0">
+    <comment ref="B124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B133" authorId="0" shapeId="0">
+    <comment ref="B133" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -282,41 +274,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B135" authorId="3" shapeId="0">
+    <comment ref="B135" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Marseille</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B137" authorId="4" shapeId="0">
+    <comment ref="B137" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Londres</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B138" authorId="0" shapeId="0">
+    <comment ref="B138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -340,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B151" authorId="0" shapeId="0">
+    <comment ref="B151" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -364,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B159" authorId="0" shapeId="0">
+    <comment ref="B159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B202" authorId="0" shapeId="0">
+    <comment ref="B202" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -412,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B204" authorId="0" shapeId="0">
+    <comment ref="B204" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B205" authorId="0" shapeId="0">
+    <comment ref="B205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B206" authorId="0" shapeId="0">
+    <comment ref="B206" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -484,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B209" authorId="0" shapeId="0">
+    <comment ref="B209" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -508,41 +482,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B213" authorId="5" shapeId="0">
+    <comment ref="B213" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     New-Yorck</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B257" authorId="6" shapeId="0">
+    <comment ref="B257" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Mulatière, commune de St-Foy-le-lyon</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B268" authorId="0" shapeId="0">
+    <comment ref="B268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -566,24 +522,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B293" authorId="7" shapeId="0">
+    <comment ref="B293" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Brovhlyn (New York)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B299" authorId="0" shapeId="0">
+    <comment ref="B299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -607,24 +554,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B300" authorId="8" shapeId="0">
+    <comment ref="B300" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nizza</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B301" authorId="0" shapeId="0">
+    <comment ref="B301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -648,24 +586,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B307" authorId="9" shapeId="0">
+    <comment ref="B307" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Grenoble (Isère)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B308" authorId="0" shapeId="0">
+    <comment ref="B308" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -689,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B315" authorId="0" shapeId="0">
+    <comment ref="B315" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -713,41 +642,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B317" authorId="10" shapeId="0">
+    <comment ref="B317" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nizza</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B318" authorId="11" shapeId="0">
+    <comment ref="B318" authorId="11" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Marseille</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B321" authorId="0" shapeId="0">
+    <comment ref="B321" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B322" authorId="0" shapeId="0">
+    <comment ref="B322" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B341" authorId="0" shapeId="0">
+    <comment ref="B341" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B348" authorId="0" shapeId="0">
+    <comment ref="B348" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -843,41 +754,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B358" authorId="12" shapeId="0">
+    <comment ref="B358" authorId="12" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Birmingam</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B403" authorId="13" shapeId="0">
+    <comment ref="B403" authorId="13" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Middlelton</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B412" authorId="0" shapeId="0">
+    <comment ref="B412" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -901,24 +794,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B440" authorId="14" shapeId="0">
+    <comment ref="B440" authorId="14" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Nizza</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B486" authorId="0" shapeId="0">
+    <comment ref="B486" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -942,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B512" authorId="0" shapeId="0">
+    <comment ref="B512" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -966,41 +850,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B531" authorId="15" shapeId="0">
+    <comment ref="B531" authorId="15" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Ciamberì</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B549" authorId="16" shapeId="0">
+    <comment ref="B549" authorId="16" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Lesseillon (Moriana)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B551" authorId="0" shapeId="0">
+    <comment ref="B551" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B585" authorId="0" shapeId="0">
+    <comment ref="B585" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B623" authorId="0" shapeId="0">
+    <comment ref="B623" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -1072,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B624" authorId="0" shapeId="0">
+    <comment ref="B624" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -1096,24 +962,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="B638" authorId="17" shapeId="0">
+    <comment ref="B638" authorId="17" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Lione (Rhône)</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B651" authorId="0" shapeId="0">
+    <comment ref="B651" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -1137,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B653" authorId="0" shapeId="0">
+    <comment ref="B653" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1161,7 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B655" authorId="0" shapeId="0">
+    <comment ref="B655" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B680" authorId="0" shapeId="0">
+    <comment ref="B680" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B716" authorId="0" shapeId="0">
+    <comment ref="B716" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B717" authorId="0" shapeId="0">
+    <comment ref="B717" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B720" authorId="0" shapeId="0">
+    <comment ref="B720" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B782" authorId="0" shapeId="0">
+    <comment ref="B782" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B791" authorId="0" shapeId="0">
+    <comment ref="B791" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B803" authorId="0" shapeId="0">
+    <comment ref="B803" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B815" authorId="0" shapeId="0">
+    <comment ref="B815" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1377,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B842" authorId="0" shapeId="0">
+    <comment ref="B842" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1401,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B882" authorId="0" shapeId="0">
+    <comment ref="B882" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B906" authorId="0" shapeId="0">
+    <comment ref="B906" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D939" authorId="0" shapeId="0">
+    <comment ref="D939" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A954" authorId="0" shapeId="0">
+    <comment ref="B992" authorId="1" shapeId="0" xr:uid="{2688E369-8B80-4A1F-8463-1A05469BC10D}">
       <text>
         <r>
           <rPr>
@@ -1483,7 +1340,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Giacomo Domini:</t>
+          <t>Domini, G. (Giacomo):</t>
         </r>
         <r>
           <rPr>
@@ -1493,179 +1350,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-incomplete</t>
+Corpi Santi di Milano</t>
         </r>
       </text>
     </comment>
-    <comment ref="A955" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A956" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A957" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A958" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A959" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A960" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A961" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Giacomo Domini:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-incomplete</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B979" authorId="0" shapeId="0">
+    <comment ref="B1035" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
       <text>
         <r>
           <rPr>
@@ -1689,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B980" authorId="0" shapeId="0">
+    <comment ref="B1036" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -1713,7 +1402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B993" authorId="0" shapeId="0">
+    <comment ref="B1049" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -1737,7 +1426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1058" authorId="0" shapeId="0">
+    <comment ref="B1114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -1766,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="358">
   <si>
     <t>1856q3</t>
   </si>
@@ -2780,12 +2469,72 @@
   </si>
   <si>
     <t>Paroldo (Mondovì)</t>
+  </si>
+  <si>
+    <t>Filadelfia</t>
+  </si>
+  <si>
+    <t>Saint-Gall</t>
+  </si>
+  <si>
+    <t>Versailles, Seine et Oise</t>
+  </si>
+  <si>
+    <t>Olivostro, provincia di Porto Maurizio</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>Messina</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Saumur, Maine et Loire</t>
+  </si>
+  <si>
+    <t>Marsiglia, Bouches du Rhône</t>
+  </si>
+  <si>
+    <t>Francières (Oise)</t>
+  </si>
+  <si>
+    <t>Altdorf Weingarten (Wurtemberg)</t>
+  </si>
+  <si>
+    <t>Pollone (Biella)</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Busto Arsizio, prov. Di Milano</t>
+  </si>
+  <si>
+    <t>Trèves (Prussia Renana)</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Sanpierdarena (Genova)</t>
+  </si>
+  <si>
+    <t>Brooklyn (New-York)</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2808,18 +2557,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2834,12 +2577,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3175,12 +2917,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1078"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1038" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1043" sqref="C1043"/>
+      <pane ySplit="1" topLeftCell="A954" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D967" sqref="D967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11677,23 +11419,29 @@
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A954" s="1" t="s">
+      <c r="A954" t="s">
         <v>300</v>
       </c>
       <c r="B954" t="s">
-        <v>7</v>
+        <v>338</v>
+      </c>
+      <c r="C954" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A955" s="1" t="s">
+      <c r="A955" t="s">
         <v>300</v>
       </c>
       <c r="B955" t="s">
-        <v>249</v>
+        <v>338</v>
+      </c>
+      <c r="C955" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A956" s="1" t="s">
+      <c r="A956" t="s">
         <v>300</v>
       </c>
       <c r="B956" t="s">
@@ -11701,26 +11449,29 @@
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A957" s="1" t="s">
+      <c r="A957" t="s">
         <v>300</v>
       </c>
       <c r="B957" t="s">
-        <v>7</v>
+        <v>339</v>
+      </c>
+      <c r="C957" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A958" s="1" t="s">
+      <c r="A958" t="s">
         <v>300</v>
       </c>
       <c r="B958" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C958" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A959" s="1" t="s">
+      <c r="A959" t="s">
         <v>300</v>
       </c>
       <c r="B959" t="s">
@@ -11728,7 +11479,7 @@
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A960" s="1" t="s">
+      <c r="A960" t="s">
         <v>300</v>
       </c>
       <c r="B960" t="s">
@@ -11736,1044 +11487,1534 @@
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A961" s="1" t="s">
+      <c r="A961" t="s">
         <v>300</v>
       </c>
       <c r="B961" t="s">
-        <v>27</v>
+        <v>340</v>
+      </c>
+      <c r="C961" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B962" t="s">
-        <v>1</v>
+        <v>341</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B963" t="s">
-        <v>302</v>
-      </c>
-      <c r="C963" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B964" t="s">
-        <v>117</v>
-      </c>
-      <c r="C964" t="s">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B965" t="s">
-        <v>27</v>
+        <v>342</v>
+      </c>
+      <c r="C965" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B966" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B967" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B968" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B969" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B970" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B971" t="s">
-        <v>7</v>
+        <v>344</v>
+      </c>
+      <c r="C971" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B972" t="s">
-        <v>7</v>
+        <v>346</v>
+      </c>
+      <c r="C972" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B973" t="s">
-        <v>304</v>
-      </c>
-      <c r="C973" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B974" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B975" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B976" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B977" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B978" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>300</v>
+      </c>
+      <c r="B979" t="s">
+        <v>347</v>
+      </c>
+      <c r="C979" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>300</v>
+      </c>
+      <c r="B980" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>300</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>300</v>
+      </c>
+      <c r="B982" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>300</v>
+      </c>
+      <c r="B983" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>300</v>
+      </c>
+      <c r="B984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C984" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>300</v>
+      </c>
+      <c r="B985" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
-        <v>254</v>
-      </c>
-      <c r="B979" t="s">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>300</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>300</v>
+      </c>
+      <c r="B987" t="s">
         <v>241</v>
-      </c>
-      <c r="C979" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
-        <v>254</v>
-      </c>
-      <c r="B980" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
-        <v>254</v>
-      </c>
-      <c r="B981" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>254</v>
-      </c>
-      <c r="B982" t="s">
-        <v>305</v>
-      </c>
-      <c r="C982" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
-        <v>254</v>
-      </c>
-      <c r="B983" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
-        <v>254</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
-        <v>254</v>
-      </c>
-      <c r="B985" t="s">
-        <v>306</v>
-      </c>
-      <c r="C985" t="s">
-        <v>22</v>
-      </c>
-      <c r="D985" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>254</v>
-      </c>
-      <c r="B986" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
-        <v>254</v>
-      </c>
-      <c r="B987" t="s">
-        <v>307</v>
       </c>
       <c r="C987" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D987" t="s">
+        <v>348</v>
+      </c>
+      <c r="E987" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B988" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B989" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>300</v>
+      </c>
+      <c r="B990" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>300</v>
+      </c>
+      <c r="B991" t="s">
+        <v>351</v>
+      </c>
+      <c r="C991" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>300</v>
+      </c>
+      <c r="B992" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
-        <v>254</v>
-      </c>
-      <c r="B990" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
-        <v>254</v>
-      </c>
-      <c r="B991" t="s">
-        <v>306</v>
-      </c>
-      <c r="C991" t="s">
-        <v>22</v>
-      </c>
-      <c r="D991" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
-        <v>254</v>
-      </c>
-      <c r="B992" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B993" t="s">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B994" t="s">
-        <v>27</v>
+        <v>353</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B995" t="s">
-        <v>171</v>
+        <v>290</v>
       </c>
       <c r="C995" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B996" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B997" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B998" t="s">
-        <v>75</v>
+        <v>354</v>
+      </c>
+      <c r="C998" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B999" t="s">
-        <v>309</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B1000" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="B1001" t="s">
-        <v>1</v>
+        <v>355</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1002" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1003" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1004" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1005" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1006" t="s">
-        <v>1</v>
+        <v>356</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1007" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1008" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1009" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1010" t="s">
-        <v>312</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1011" t="s">
-        <v>32</v>
+        <v>249</v>
       </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1012" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1013" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1014" t="s">
-        <v>7</v>
+        <v>301</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1015" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1016" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B1017" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1018" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1018" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1019" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C1019" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1020" t="s">
-        <v>316</v>
+        <v>117</v>
       </c>
       <c r="C1020" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1021" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1022" t="s">
-        <v>317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1023" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1024" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1031" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1025" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1025" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1026" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>318</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1027" t="s">
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1033" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1028" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1029" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1029" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1029" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1030" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1031" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1031" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1032" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1033" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1034" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="B1035" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="C1035" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
         <v>310</v>
       </c>
-      <c r="B1036" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
+      <c r="B1058" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
         <v>310</v>
       </c>
-      <c r="B1037" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1038" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1038" t="s">
+      <c r="B1059" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1064" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1039" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1040" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1041" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1042" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1043" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1044" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1045" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1047" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1048" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1050" t="s">
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1067" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1051" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1051" t="s">
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1069" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1054" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1056" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>333</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>334</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1070" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1071" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1072" t="s">
-        <v>336</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1073" t="s">
-        <v>1</v>
+        <v>314</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1074" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1075" t="s">
-        <v>7</v>
+        <v>315</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1076" t="s">
-        <v>118</v>
+        <v>316</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B1077" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
         <v>325</v>
       </c>
-      <c r="B1078" t="s">
+      <c r="B1094" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1134" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E747"/>
+  <autoFilter ref="A1:E747" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -12781,12 +13022,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="849ba905-b147-4d5f-9c8c-24526156989e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13029,17 +13269,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="849ba905-b147-4d5f-9c8c-24526156989e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB894D05-5D61-4DC4-8515-893E0A7C8F5F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80AC2182-9A61-4E0F-9394-F498012C2D85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6e1ea3c6-49aa-46a0-abdd-da3db8966731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="849ba905-b147-4d5f-9c8c-24526156989e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13064,18 +13314,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80AC2182-9A61-4E0F-9394-F498012C2D85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB894D05-5D61-4DC4-8515-893E0A7C8F5F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6e1ea3c6-49aa-46a0-abdd-da3db8966731"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="849ba905-b147-4d5f-9c8c-24526156989e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>